--- a/Table/Hero/HeroDataCfg.xlsx
+++ b/Table/Hero/HeroDataCfg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="148">
   <si>
     <t>UNK:INT:ID</t>
   </si>
@@ -22,7 +22,37 @@
     <t>FLD:STR:NAME</t>
   </si>
   <si>
-    <t>FLD:INT:ATTACK</t>
+    <t>FLD:INT:BaseHP</t>
+  </si>
+  <si>
+    <t>FLD:INT:BaseMP</t>
+  </si>
+  <si>
+    <t>FLD:INT:BaseAttack</t>
+  </si>
+  <si>
+    <t>FLD:INT:BaseArmor</t>
+  </si>
+  <si>
+    <t>FLD:INT:BaseStrength</t>
+  </si>
+  <si>
+    <t>FLD:INT:StrengthGrowth</t>
+  </si>
+  <si>
+    <t>CMT</t>
+  </si>
+  <si>
+    <t>FLD:INT:BaseAgility</t>
+  </si>
+  <si>
+    <t>FLD:INT:AgilityGrowth</t>
+  </si>
+  <si>
+    <t>FLD:INT:BaseIntelligence</t>
+  </si>
+  <si>
+    <t>FLD:INT:IntelligenceGrowth</t>
   </si>
   <si>
     <t>英雄ID</t>
@@ -31,10 +61,403 @@
     <t>英雄名称</t>
   </si>
   <si>
-    <t>英雄初始攻击</t>
-  </si>
-  <si>
-    <t>船长</t>
+    <t>初始血量</t>
+  </si>
+  <si>
+    <t>初始魔法</t>
+  </si>
+  <si>
+    <t>初始攻击</t>
+  </si>
+  <si>
+    <t>初始护甲</t>
+  </si>
+  <si>
+    <t>初始力量</t>
+  </si>
+  <si>
+    <t>力量成长</t>
+  </si>
+  <si>
+    <t>30级力量</t>
+  </si>
+  <si>
+    <t>初始敏捷</t>
+  </si>
+  <si>
+    <t>敏捷成长</t>
+  </si>
+  <si>
+    <t>30级敏捷</t>
+  </si>
+  <si>
+    <t>初始智力</t>
+  </si>
+  <si>
+    <t>智力成长</t>
+  </si>
+  <si>
+    <t>30级智力</t>
+  </si>
+  <si>
+    <t>上古巨神</t>
+  </si>
+  <si>
+    <t>不朽尸王</t>
+  </si>
+  <si>
+    <t>主宰</t>
+  </si>
+  <si>
+    <t>亚巴顿</t>
+  </si>
+  <si>
+    <t>伐木机</t>
+  </si>
+  <si>
+    <t>修补匠</t>
+  </si>
+  <si>
+    <t>先知</t>
+  </si>
+  <si>
+    <t>光之守卫</t>
+  </si>
+  <si>
+    <t>克林克兹</t>
+  </si>
+  <si>
+    <t>全能骑士</t>
+  </si>
+  <si>
+    <t>兽王</t>
+  </si>
+  <si>
+    <t>军团指挥官</t>
+  </si>
+  <si>
+    <t>冥界亚龙</t>
+  </si>
+  <si>
+    <t>冥魂大帝</t>
+  </si>
+  <si>
+    <t>凤凰</t>
+  </si>
+  <si>
+    <t>剃刀</t>
+  </si>
+  <si>
+    <t>剧毒术士</t>
+  </si>
+  <si>
+    <t>力丸</t>
+  </si>
+  <si>
+    <t>半人马战行者</t>
+  </si>
+  <si>
+    <t>卓尔游侠</t>
+  </si>
+  <si>
+    <t>发条技师</t>
+  </si>
+  <si>
+    <t>变体精灵</t>
+  </si>
+  <si>
+    <t>司夜刺客</t>
+  </si>
+  <si>
+    <t>哈斯卡</t>
+  </si>
+  <si>
+    <t>噬魂鬼</t>
+  </si>
+  <si>
+    <t>圣堂刺客</t>
+  </si>
+  <si>
+    <t>复仇之魂</t>
+  </si>
+  <si>
+    <t>大地之灵</t>
+  </si>
+  <si>
+    <t>天怒法师</t>
+  </si>
+  <si>
+    <t>天涯墨客</t>
+  </si>
+  <si>
+    <t>天穹守望者</t>
+  </si>
+  <si>
+    <t>娜迦海妖</t>
+  </si>
+  <si>
+    <t>孽主</t>
+  </si>
+  <si>
+    <t>宙斯</t>
+  </si>
+  <si>
+    <t>寒冬飞龙</t>
+  </si>
+  <si>
+    <t>小小</t>
+  </si>
+  <si>
+    <t>工程师</t>
+  </si>
+  <si>
+    <t>巨牙海民</t>
+  </si>
+  <si>
+    <t>巨魔战将</t>
+  </si>
+  <si>
+    <t>巫医</t>
+  </si>
+  <si>
+    <t>巫妖</t>
+  </si>
+  <si>
+    <t>帕克</t>
+  </si>
+  <si>
+    <t>帕吉</t>
+  </si>
+  <si>
+    <t>帕格纳</t>
+  </si>
+  <si>
+    <t>干扰者</t>
+  </si>
+  <si>
+    <t>幻影刺客</t>
+  </si>
+  <si>
+    <t>幻影长矛手</t>
+  </si>
+  <si>
+    <t>幽鬼</t>
+  </si>
+  <si>
+    <t>影魔</t>
+  </si>
+  <si>
+    <t>德鲁伊</t>
+  </si>
+  <si>
+    <t>恐怖利刃</t>
+  </si>
+  <si>
+    <t>戴泽</t>
+  </si>
+  <si>
+    <t>拉席克</t>
+  </si>
+  <si>
+    <t>拉比克</t>
+  </si>
+  <si>
+    <t>撼地者</t>
+  </si>
+  <si>
+    <t>敌法师</t>
+  </si>
+  <si>
+    <t>斧王</t>
+  </si>
+  <si>
+    <t>斯拉克</t>
+  </si>
+  <si>
+    <t>斯拉达</t>
+  </si>
+  <si>
+    <t>斯温</t>
+  </si>
+  <si>
+    <t>昆卡</t>
+  </si>
+  <si>
+    <t>暗夜魔王</t>
+  </si>
+  <si>
+    <t>暗影恶魔</t>
+  </si>
+  <si>
+    <t>暗影萨满</t>
+  </si>
+  <si>
+    <t>末日使者</t>
+  </si>
+  <si>
+    <t>术士</t>
+  </si>
+  <si>
+    <t>杰奇洛</t>
+  </si>
+  <si>
+    <t>树精卫士</t>
+  </si>
+  <si>
+    <t>森海飞霞</t>
+  </si>
+  <si>
+    <t>死亡先知</t>
+  </si>
+  <si>
+    <t>殁境神蚀者</t>
+  </si>
+  <si>
+    <t>水晶室女</t>
+  </si>
+  <si>
+    <t>沉默术士</t>
+  </si>
+  <si>
+    <t>沙王</t>
+  </si>
+  <si>
+    <t>混沌骑士</t>
+  </si>
+  <si>
+    <t>潮汐猎人</t>
+  </si>
+  <si>
+    <t>灰烬之灵</t>
+  </si>
+  <si>
+    <t>炼金术士</t>
+  </si>
+  <si>
+    <t>熊战士</t>
+  </si>
+  <si>
+    <t>狙击手</t>
+  </si>
+  <si>
+    <t>狼人</t>
+  </si>
+  <si>
+    <t>玛尔斯</t>
+  </si>
+  <si>
+    <t>电炎绝手</t>
+  </si>
+  <si>
+    <t>痛苦女王</t>
+  </si>
+  <si>
+    <t>瘟疫法师</t>
+  </si>
+  <si>
+    <t>矮人直升机</t>
+  </si>
+  <si>
+    <t>石鳞剑士</t>
+  </si>
+  <si>
+    <t>破晓辰星</t>
+  </si>
+  <si>
+    <t>祈求者</t>
+  </si>
+  <si>
+    <t>神谕者</t>
+  </si>
+  <si>
+    <t>祸乱之源</t>
+  </si>
+  <si>
+    <t>米拉娜</t>
+  </si>
+  <si>
+    <t>米波</t>
+  </si>
+  <si>
+    <t>维萨吉</t>
+  </si>
+  <si>
+    <t>编织者</t>
+  </si>
+  <si>
+    <t>美杜莎</t>
+  </si>
+  <si>
+    <t>育母蜘蛛</t>
+  </si>
+  <si>
+    <t>艾欧</t>
+  </si>
+  <si>
+    <t>莉娜</t>
+  </si>
+  <si>
+    <t>莱恩</t>
+  </si>
+  <si>
+    <t>虚无之灵</t>
+  </si>
+  <si>
+    <t>虚空假面</t>
+  </si>
+  <si>
+    <t>蝙蝠骑士</t>
+  </si>
+  <si>
+    <t>血魔</t>
+  </si>
+  <si>
+    <t>裂魂人</t>
+  </si>
+  <si>
+    <t>谜团</t>
+  </si>
+  <si>
+    <t>赏金猎人</t>
+  </si>
+  <si>
+    <t>远古冰魄</t>
+  </si>
+  <si>
+    <t>邪影芳灵</t>
+  </si>
+  <si>
+    <t>酒仙</t>
+  </si>
+  <si>
+    <t>钢背兽</t>
+  </si>
+  <si>
+    <t>陈</t>
+  </si>
+  <si>
+    <t>露娜</t>
+  </si>
+  <si>
+    <t>风暴之灵</t>
+  </si>
+  <si>
+    <t>风行者</t>
+  </si>
+  <si>
+    <t>食人魔魔法师</t>
+  </si>
+  <si>
+    <t>马格纳斯</t>
+  </si>
+  <si>
+    <t>魅惑魔女</t>
+  </si>
+  <si>
+    <t>黑暗贤者</t>
+  </si>
+  <si>
+    <t>齐天大圣</t>
   </si>
 </sst>
 </file>
@@ -42,10 +465,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -56,46 +479,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <sz val="10.55"/>
+      <color rgb="FFB9B9B9"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,17 +500,31 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -131,27 +536,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -170,6 +559,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -179,7 +576,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,21 +621,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,13 +638,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FF2F2F2F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FF3C3C3C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,31 +656,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,43 +674,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,13 +710,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,25 +722,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,7 +764,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,23 +806,104 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF111111"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF111111"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF111111"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF111111"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -430,36 +927,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,180 +956,177 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1012,87 +1476,4794 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:O122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="9" width="16" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.75" customWidth="1"/>
+    <col min="5" max="6" width="14" customWidth="1"/>
+    <col min="7" max="15" width="12.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" ht="18" spans="1:15">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4">
+        <v>26</v>
+      </c>
+      <c r="H3" s="4">
+        <v>3</v>
+      </c>
+      <c r="I3" s="4">
+        <v>113</v>
+      </c>
+      <c r="J3" s="4">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="L3" s="4">
+        <v>66.2</v>
+      </c>
+      <c r="M3" s="4">
+        <v>23</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="O3" s="4">
+        <v>69.4</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="1:15">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6">
+        <v>22</v>
+      </c>
+      <c r="H4" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="I4" s="6">
+        <v>103.2</v>
+      </c>
+      <c r="J4" s="6">
+        <v>10</v>
+      </c>
+      <c r="K4" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="L4" s="6">
+        <v>44.8</v>
+      </c>
+      <c r="M4" s="6">
+        <v>27</v>
+      </c>
+      <c r="N4" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="O4" s="6">
+        <v>108.2</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:15">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4">
+        <v>20</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="J5" s="4">
+        <v>34</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="L5" s="4">
+        <v>115.2</v>
+      </c>
+      <c r="M5" s="4">
+        <v>14</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O5" s="4">
+        <v>54.6</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="1:15">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6">
+        <v>23</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3</v>
+      </c>
+      <c r="I6" s="6">
+        <v>110</v>
+      </c>
+      <c r="J6" s="6">
+        <v>23</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="L6" s="6">
+        <v>66.5</v>
+      </c>
+      <c r="M6" s="6">
+        <v>18</v>
+      </c>
+      <c r="N6" s="6">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="O6" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:15">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="4">
+        <v>24</v>
+      </c>
+      <c r="H7" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>116.8</v>
+      </c>
+      <c r="J7" s="4">
+        <v>16</v>
+      </c>
+      <c r="K7" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="L7" s="4">
+        <v>62.4</v>
+      </c>
+      <c r="M7" s="4">
+        <v>23</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="O7" s="4">
+        <v>101.3</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:15">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6">
+        <v>18</v>
+      </c>
+      <c r="H8" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="I8" s="6">
+        <v>90.5</v>
+      </c>
+      <c r="J8" s="6">
+        <v>13</v>
+      </c>
+      <c r="K8" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="L8" s="6">
+        <v>47.8</v>
+      </c>
+      <c r="M8" s="6">
+        <v>30</v>
+      </c>
+      <c r="N8" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="O8" s="6">
+        <v>125.7</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:15">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="4">
+        <v>21</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="I9" s="4">
+        <v>96.4</v>
+      </c>
+      <c r="J9" s="4">
+        <v>22</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="L9" s="4">
+        <v>126.4</v>
+      </c>
+      <c r="M9" s="4">
+        <v>23</v>
+      </c>
+      <c r="N9" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="O9" s="4">
+        <v>130.3</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:15">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6">
+        <v>2.3</v>
+      </c>
+      <c r="I10" s="6">
+        <v>82.7</v>
+      </c>
+      <c r="J10" s="6">
+        <v>15</v>
+      </c>
+      <c r="K10" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="L10" s="6">
+        <v>61.4</v>
+      </c>
+      <c r="M10" s="6">
+        <v>23</v>
+      </c>
+      <c r="N10" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="O10" s="6">
+        <v>115.8</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:15">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="4">
+        <v>14</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>77.8</v>
+      </c>
+      <c r="J11" s="4">
+        <v>22</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="L11" s="4">
+        <v>100.3</v>
+      </c>
+      <c r="M11" s="4">
+        <v>18</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="O11" s="4">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:15">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="6">
+        <v>22</v>
+      </c>
+      <c r="H12" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="I12" s="6">
+        <v>120.6</v>
+      </c>
+      <c r="J12" s="6">
+        <v>15</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="L12" s="6">
+        <v>67.2</v>
+      </c>
+      <c r="M12" s="6">
+        <v>15</v>
+      </c>
+      <c r="N12" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="O12" s="6">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:15">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="4">
+        <v>23</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="I13" s="4">
+        <v>107.1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>18</v>
+      </c>
+      <c r="K13" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="L13" s="4">
+        <v>64.4</v>
+      </c>
+      <c r="M13" s="4">
+        <v>16</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="O13" s="4">
+        <v>71.1</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" spans="1:15">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6">
+        <v>25</v>
+      </c>
+      <c r="H14" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="I14" s="6">
+        <v>120.7</v>
+      </c>
+      <c r="J14" s="6">
+        <v>18</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="L14" s="6">
+        <v>67.3</v>
+      </c>
+      <c r="M14" s="6">
+        <v>20</v>
+      </c>
+      <c r="N14" s="6">
+        <v>2.2</v>
+      </c>
+      <c r="O14" s="6">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:15">
+      <c r="A15" s="2">
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="4">
+        <v>21</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="I15" s="4">
+        <v>90.6</v>
+      </c>
+      <c r="J15" s="4">
+        <v>21</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="L15" s="4">
+        <v>93.5</v>
+      </c>
+      <c r="M15" s="4">
+        <v>17</v>
+      </c>
+      <c r="N15" s="4">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="O15" s="4">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="1:15">
+      <c r="A16" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6">
+        <v>22</v>
+      </c>
+      <c r="H16" s="6">
+        <v>3</v>
+      </c>
+      <c r="I16" s="6">
+        <v>109</v>
+      </c>
+      <c r="J16" s="6">
+        <v>18</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="L16" s="6">
+        <v>67.3</v>
+      </c>
+      <c r="M16" s="6">
+        <v>18</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="O16" s="6">
+        <v>64.4</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" spans="1:15">
+      <c r="A17" s="2">
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="4">
+        <v>23</v>
+      </c>
+      <c r="H17" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I17" s="4">
+        <v>124.5</v>
+      </c>
+      <c r="J17" s="4">
+        <v>12</v>
+      </c>
+      <c r="K17" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="L17" s="4">
+        <v>49.7</v>
+      </c>
+      <c r="M17" s="4">
+        <v>16</v>
+      </c>
+      <c r="N17" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="O17" s="4">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" spans="1:15">
+      <c r="A18" s="2">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6">
+        <v>22</v>
+      </c>
+      <c r="H18" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="I18" s="6">
+        <v>103.2</v>
+      </c>
+      <c r="J18" s="6">
+        <v>22</v>
+      </c>
+      <c r="K18" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="L18" s="6">
+        <v>97.4</v>
+      </c>
+      <c r="M18" s="6">
+        <v>21</v>
+      </c>
+      <c r="N18" s="6">
+        <v>2.2</v>
+      </c>
+      <c r="O18" s="6">
+        <v>84.8</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" spans="1:15">
+      <c r="A19" s="2">
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="4">
+        <v>19</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="I19" s="4">
+        <v>79.9</v>
+      </c>
+      <c r="J19" s="4">
+        <v>26</v>
+      </c>
+      <c r="K19" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="L19" s="4">
+        <v>118.8</v>
+      </c>
+      <c r="M19" s="4">
+        <v>19</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="O19" s="4">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="20" ht="17.25" spans="1:15">
+      <c r="A20" s="2">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6">
+        <v>18</v>
+      </c>
+      <c r="H20" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="I20" s="6">
+        <v>87.6</v>
+      </c>
+      <c r="J20" s="6">
+        <v>18</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="L20" s="6">
+        <v>58.6</v>
+      </c>
+      <c r="M20" s="6">
+        <v>14</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="O20" s="6">
+        <v>51.7</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25" spans="1:15">
+      <c r="A21" s="2">
+        <v>19</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4">
+        <v>27</v>
+      </c>
+      <c r="H21" s="4">
+        <v>4.6</v>
+      </c>
+      <c r="I21" s="4">
+        <v>160.4</v>
+      </c>
+      <c r="J21" s="4">
+        <v>15</v>
+      </c>
+      <c r="K21" s="4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="4">
+        <v>44</v>
+      </c>
+      <c r="M21" s="4">
+        <v>15</v>
+      </c>
+      <c r="N21" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="O21" s="4">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="22" ht="17.25" spans="1:15">
+      <c r="A22" s="2">
+        <v>20</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6">
+        <v>18</v>
+      </c>
+      <c r="H22" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="I22" s="6">
+        <v>73.1</v>
+      </c>
+      <c r="J22" s="6">
+        <v>20</v>
+      </c>
+      <c r="K22" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="L22" s="6">
+        <v>104.1</v>
+      </c>
+      <c r="M22" s="6">
+        <v>15</v>
+      </c>
+      <c r="N22" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="O22" s="6">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="23" ht="17.25" spans="1:15">
+      <c r="A23" s="2">
+        <v>21</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4">
+        <v>26</v>
+      </c>
+      <c r="H23" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I23" s="4">
+        <v>127.5</v>
+      </c>
+      <c r="J23" s="4">
+        <v>13</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2.3</v>
+      </c>
+      <c r="L23" s="4">
+        <v>79.7</v>
+      </c>
+      <c r="M23" s="4">
+        <v>18</v>
+      </c>
+      <c r="N23" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="O23" s="4">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="24" ht="17.25" spans="1:15">
+      <c r="A24" s="2">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="6">
+        <v>22</v>
+      </c>
+      <c r="H24" s="6">
+        <v>3</v>
+      </c>
+      <c r="I24" s="6">
+        <v>109</v>
+      </c>
+      <c r="J24" s="6">
+        <v>24</v>
+      </c>
+      <c r="K24" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="L24" s="6">
+        <v>148.7</v>
+      </c>
+      <c r="M24" s="6">
+        <v>15</v>
+      </c>
+      <c r="N24" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="O24" s="6">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="25" ht="17.25" spans="1:15">
+      <c r="A25" s="2">
+        <v>23</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4">
+        <v>18</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I25" s="4">
+        <v>90.5</v>
+      </c>
+      <c r="J25" s="4">
+        <v>19</v>
+      </c>
+      <c r="K25" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="L25" s="4">
+        <v>91.5</v>
+      </c>
+      <c r="M25" s="4">
+        <v>18</v>
+      </c>
+      <c r="N25" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="O25" s="4">
+        <v>78.9</v>
+      </c>
+    </row>
+    <row r="26" ht="17.25" spans="1:15">
+      <c r="A26" s="2">
+        <v>24</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="6">
+        <v>21</v>
+      </c>
+      <c r="H26" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="I26" s="6">
+        <v>113.8</v>
+      </c>
+      <c r="J26" s="6">
+        <v>15</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="L26" s="6">
+        <v>67.2</v>
+      </c>
+      <c r="M26" s="6">
+        <v>18</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="O26" s="6">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="27" ht="17.25" spans="1:15">
+      <c r="A27" s="2">
+        <v>25</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4">
+        <v>25</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="I27" s="4">
+        <v>94.6</v>
+      </c>
+      <c r="J27" s="4">
+        <v>18</v>
+      </c>
+      <c r="K27" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="L27" s="4">
+        <v>87.6</v>
+      </c>
+      <c r="M27" s="4">
+        <v>15</v>
+      </c>
+      <c r="N27" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="O27" s="4">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="28" ht="17.25" spans="1:15">
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="6">
+        <v>21</v>
+      </c>
+      <c r="H28" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="I28" s="6">
+        <v>90.6</v>
+      </c>
+      <c r="J28" s="6">
+        <v>23</v>
+      </c>
+      <c r="K28" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="L28" s="6">
+        <v>115.8</v>
+      </c>
+      <c r="M28" s="6">
+        <v>20</v>
+      </c>
+      <c r="N28" s="6">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="O28" s="6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" ht="17.25" spans="1:15">
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4">
+        <v>19</v>
+      </c>
+      <c r="H29" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="I29" s="4">
+        <v>88.6</v>
+      </c>
+      <c r="J29" s="4">
+        <v>20</v>
+      </c>
+      <c r="K29" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="L29" s="4">
+        <v>130.2</v>
+      </c>
+      <c r="M29" s="4">
+        <v>17</v>
+      </c>
+      <c r="N29" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="O29" s="4">
+        <v>60.5</v>
+      </c>
+    </row>
+    <row r="30" ht="17.25" spans="1:15">
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="6">
+        <v>22</v>
+      </c>
+      <c r="H30" s="6">
+        <v>4.4</v>
+      </c>
+      <c r="I30" s="6">
+        <v>149.6</v>
+      </c>
+      <c r="J30" s="6">
+        <v>17</v>
+      </c>
+      <c r="K30" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="L30" s="6">
+        <v>86.6</v>
+      </c>
+      <c r="M30" s="6">
+        <v>20</v>
+      </c>
+      <c r="N30" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="O30" s="6">
+        <v>80.9</v>
+      </c>
+    </row>
+    <row r="31" ht="17.25" spans="1:15">
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="4">
+        <v>21</v>
+      </c>
+      <c r="H31" s="4">
         <v>2</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I31" s="4">
+        <v>79</v>
+      </c>
+      <c r="J31" s="4">
+        <v>13</v>
+      </c>
+      <c r="K31" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="L31" s="4">
+        <v>36.2</v>
+      </c>
+      <c r="M31" s="4">
+        <v>25</v>
+      </c>
+      <c r="N31" s="4">
+        <v>4.1</v>
+      </c>
+      <c r="O31" s="4">
+        <v>143.9</v>
+      </c>
+    </row>
+    <row r="32" ht="17.25" spans="1:15">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="6">
+        <v>21</v>
+      </c>
+      <c r="H32" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="I32" s="6">
+        <v>90.6</v>
+      </c>
+      <c r="J32" s="6">
+        <v>18</v>
+      </c>
+      <c r="K32" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="L32" s="6">
+        <v>73.1</v>
+      </c>
+      <c r="M32" s="6">
+        <v>25</v>
+      </c>
+      <c r="N32" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="O32" s="6">
+        <v>135.2</v>
+      </c>
+    </row>
+    <row r="33" ht="17.25" spans="1:15">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="4">
+        <v>25</v>
+      </c>
+      <c r="H33" s="4">
+        <v>3</v>
+      </c>
+      <c r="I33" s="4">
+        <v>112</v>
+      </c>
+      <c r="J33" s="4">
+        <v>16</v>
+      </c>
+      <c r="K33" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="L33" s="4">
+        <v>88.5</v>
+      </c>
+      <c r="M33" s="4">
+        <v>24</v>
+      </c>
+      <c r="N33" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="O33" s="4">
+        <v>99.4</v>
+      </c>
+    </row>
+    <row r="34" ht="17.25" spans="1:15">
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="6">
+        <v>22</v>
+      </c>
+      <c r="H34" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="I34" s="6">
+        <v>103.2</v>
+      </c>
+      <c r="J34" s="6">
+        <v>21</v>
+      </c>
+      <c r="K34" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="L34" s="6">
+        <v>122.5</v>
+      </c>
+      <c r="M34" s="6">
+        <v>21</v>
+      </c>
+      <c r="N34" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="O34" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" ht="17.25" spans="1:15">
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="4">
+        <v>25</v>
+      </c>
+      <c r="H35" s="4">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="I35" s="4">
+        <v>112</v>
+      </c>
+      <c r="J35" s="4">
+        <v>12</v>
+      </c>
+      <c r="K35" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="L35" s="4">
+        <v>58.4</v>
+      </c>
+      <c r="M35" s="4">
+        <v>17</v>
+      </c>
+      <c r="N35" s="4">
+        <v>2.3</v>
+      </c>
+      <c r="O35" s="4">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="36" ht="17.25" spans="1:15">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="6">
+        <v>19</v>
+      </c>
+      <c r="H36" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="I36" s="6">
+        <v>79.9</v>
+      </c>
+      <c r="J36" s="6">
+        <v>11</v>
+      </c>
+      <c r="K36" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="L36" s="6">
+        <v>45.8</v>
+      </c>
+      <c r="M36" s="6">
+        <v>22</v>
+      </c>
+      <c r="N36" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="O36" s="6">
+        <v>117.7</v>
+      </c>
+    </row>
+    <row r="37" ht="17.25" spans="1:15">
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="4">
+        <v>24</v>
+      </c>
+      <c r="H37" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="I37" s="4">
+        <v>99.4</v>
+      </c>
+      <c r="J37" s="4">
+        <v>16</v>
+      </c>
+      <c r="K37" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="L37" s="4">
+        <v>71.1</v>
+      </c>
+      <c r="M37" s="4">
+        <v>26</v>
+      </c>
+      <c r="N37" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="O37" s="4">
+        <v>130.4</v>
+      </c>
+    </row>
+    <row r="38" ht="17.25" spans="1:15">
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6">
+        <v>28</v>
+      </c>
+      <c r="H38" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="I38" s="6">
+        <v>138.2</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>17</v>
+      </c>
+      <c r="N38" s="6">
+        <v>2.2</v>
+      </c>
+      <c r="O38" s="6">
+        <v>80.8</v>
+      </c>
+    </row>
+    <row r="39" ht="17.25" spans="1:15">
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="4">
+        <v>19</v>
+      </c>
+      <c r="H39" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I39" s="4">
+        <v>91.5</v>
+      </c>
+      <c r="J39" s="4">
+        <v>14</v>
+      </c>
+      <c r="K39" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="L39" s="4">
+        <v>51.7</v>
+      </c>
+      <c r="M39" s="4">
+        <v>25</v>
+      </c>
+      <c r="N39" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="O39" s="4">
+        <v>120.7</v>
+      </c>
+    </row>
+    <row r="40" ht="17.25" spans="1:15">
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="6">
+        <v>23</v>
+      </c>
+      <c r="H40" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="I40" s="6">
+        <v>136.1</v>
+      </c>
+      <c r="J40" s="6">
+        <v>23</v>
+      </c>
+      <c r="K40" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="L40" s="6">
+        <v>83.9</v>
+      </c>
+      <c r="M40" s="6">
+        <v>18</v>
+      </c>
+      <c r="N40" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="O40" s="6">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="41" ht="17.25" spans="1:15">
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="4">
+        <v>21</v>
+      </c>
+      <c r="H41" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I41" s="4">
+        <v>93.5</v>
+      </c>
+      <c r="J41" s="4">
+        <v>21</v>
+      </c>
+      <c r="K41" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="L41" s="4">
+        <v>116.7</v>
+      </c>
+      <c r="M41" s="4">
+        <v>13</v>
+      </c>
+      <c r="N41" s="4">
+        <v>1</v>
+      </c>
+      <c r="O41" s="4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" ht="17.25" spans="1:15">
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="6">
+        <v>18</v>
+      </c>
+      <c r="H42" s="6">
+        <v>2.3</v>
+      </c>
+      <c r="I42" s="6">
+        <v>84.7</v>
+      </c>
+      <c r="J42" s="6">
+        <v>13</v>
+      </c>
+      <c r="K42" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="L42" s="6">
+        <v>53.6</v>
+      </c>
+      <c r="M42" s="6">
+        <v>22</v>
+      </c>
+      <c r="N42" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="O42" s="6">
+        <v>117.7</v>
+      </c>
+    </row>
+    <row r="43" ht="17.25" spans="1:15">
+      <c r="A43" s="2">
+        <v>41</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="4">
+        <v>20</v>
+      </c>
+      <c r="H43" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="I43" s="4">
+        <v>80.9</v>
+      </c>
+      <c r="J43" s="4">
+        <v>15</v>
+      </c>
+      <c r="K43" s="4">
+        <v>2</v>
+      </c>
+      <c r="L43" s="4">
+        <v>73</v>
+      </c>
+      <c r="M43" s="4">
+        <v>24</v>
+      </c>
+      <c r="N43" s="4">
+        <v>4.1</v>
+      </c>
+      <c r="O43" s="4">
+        <v>142.9</v>
+      </c>
+    </row>
+    <row r="44" ht="17.25" spans="1:15">
+      <c r="A44" s="2">
+        <v>42</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="6">
+        <v>17</v>
+      </c>
+      <c r="H44" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="I44" s="6">
+        <v>86.6</v>
+      </c>
+      <c r="J44" s="6">
+        <v>22</v>
+      </c>
+      <c r="K44" s="6">
+        <v>2.2</v>
+      </c>
+      <c r="L44" s="6">
+        <v>85.8</v>
+      </c>
+      <c r="M44" s="6">
+        <v>23</v>
+      </c>
+      <c r="N44" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="O44" s="6">
+        <v>124.5</v>
+      </c>
+    </row>
+    <row r="45" ht="17.25" spans="1:15">
+      <c r="A45" s="2">
+        <v>43</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="4">
+        <v>25</v>
+      </c>
+      <c r="H45" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="I45" s="4">
+        <v>117.8</v>
+      </c>
+      <c r="J45" s="4">
+        <v>14</v>
+      </c>
+      <c r="K45" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="L45" s="4">
+        <v>57.5</v>
+      </c>
+      <c r="M45" s="4">
+        <v>16</v>
+      </c>
+      <c r="N45" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="O45" s="4">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="46" ht="17.25" spans="1:15">
+      <c r="A46" s="2">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="6">
+        <v>19</v>
+      </c>
+      <c r="H46" s="6">
+        <v>2</v>
+      </c>
+      <c r="I46" s="6">
+        <v>77</v>
+      </c>
+      <c r="J46" s="6">
+        <v>24</v>
+      </c>
+      <c r="K46" s="6">
+        <v>1</v>
+      </c>
+      <c r="L46" s="6">
+        <v>53</v>
+      </c>
+      <c r="M46" s="6">
+        <v>24</v>
+      </c>
+      <c r="N46" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="O46" s="6">
+        <v>174.8</v>
+      </c>
+    </row>
+    <row r="47" ht="17.25" spans="1:15">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="4">
+        <v>21</v>
+      </c>
+      <c r="H47" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="I47" s="4">
+        <v>90.6</v>
+      </c>
+      <c r="J47" s="4">
+        <v>15</v>
+      </c>
+      <c r="K47" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="L47" s="4">
+        <v>55.6</v>
+      </c>
+      <c r="M47" s="4">
+        <v>20</v>
+      </c>
+      <c r="N47" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="O47" s="4">
+        <v>104.1</v>
+      </c>
+    </row>
+    <row r="48" ht="17.25" spans="1:15">
+      <c r="A48" s="2">
+        <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="6">
+        <v>21</v>
+      </c>
+      <c r="H48" s="6">
+        <v>2.2</v>
+      </c>
+      <c r="I48" s="6">
+        <v>84.8</v>
+      </c>
+      <c r="J48" s="6">
+        <v>23</v>
+      </c>
+      <c r="K48" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="L48" s="6">
+        <v>121.6</v>
+      </c>
+      <c r="M48" s="6">
+        <v>15</v>
+      </c>
+      <c r="N48" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="O48" s="6">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="49" ht="17.25" spans="1:15">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="4">
+        <v>19</v>
+      </c>
+      <c r="H49" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="I49" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="J49" s="4">
+        <v>26</v>
+      </c>
+      <c r="K49" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="L49" s="4">
+        <v>118.8</v>
+      </c>
+      <c r="M49" s="4">
+        <v>19</v>
+      </c>
+      <c r="N49" s="4">
+        <v>2</v>
+      </c>
+      <c r="O49" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" ht="17.25" spans="1:15">
+      <c r="A50" s="2">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="6">
+        <v>23</v>
+      </c>
+      <c r="H50" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="I50" s="6">
+        <v>95.5</v>
+      </c>
+      <c r="J50" s="6">
+        <v>23</v>
+      </c>
+      <c r="K50" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="L50" s="6">
+        <v>83.9</v>
+      </c>
+      <c r="M50" s="6">
+        <v>16</v>
+      </c>
+      <c r="N50" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="O50" s="6">
+        <v>71.1</v>
+      </c>
+    </row>
+    <row r="51" ht="17.25" spans="1:15">
+      <c r="A51" s="2">
+        <v>49</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="4">
+        <v>19</v>
+      </c>
+      <c r="H51" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="I51" s="4">
+        <v>97.3</v>
+      </c>
+      <c r="J51" s="4">
+        <v>20</v>
+      </c>
+      <c r="K51" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="L51" s="4">
+        <v>121.5</v>
+      </c>
+      <c r="M51" s="4">
+        <v>18</v>
+      </c>
+      <c r="N51" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="O51" s="4">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="52" ht="17.25" spans="1:15">
+      <c r="A52" s="2">
+        <v>50</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="6">
+        <v>18</v>
+      </c>
+      <c r="H52" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="I52" s="6">
+        <v>90.5</v>
+      </c>
+      <c r="J52" s="6">
+        <v>20</v>
+      </c>
+      <c r="K52" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="L52" s="6">
+        <v>101.2</v>
+      </c>
+      <c r="M52" s="6">
+        <v>13</v>
+      </c>
+      <c r="N52" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="O52" s="6">
+        <v>53.6</v>
+      </c>
+    </row>
+    <row r="53" ht="17.25" spans="1:15">
+      <c r="A53" s="2">
+        <v>51</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="4">
+        <v>15</v>
+      </c>
+      <c r="H53" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="I53" s="4">
+        <v>64.3</v>
+      </c>
+      <c r="J53" s="4">
+        <v>22</v>
+      </c>
+      <c r="K53" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="L53" s="4">
+        <v>161.2</v>
+      </c>
+      <c r="M53" s="4">
+        <v>19</v>
+      </c>
+      <c r="N53" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="O53" s="4">
+        <v>65.4</v>
+      </c>
+    </row>
+    <row r="54" ht="17.25" spans="1:15">
+      <c r="A54" s="2">
+        <v>52</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="6">
+        <v>18</v>
+      </c>
+      <c r="H54" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="I54" s="6">
+        <v>90.5</v>
+      </c>
+      <c r="J54" s="6">
+        <v>21</v>
+      </c>
+      <c r="K54" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="L54" s="6">
+        <v>70.3</v>
+      </c>
+      <c r="M54" s="6">
+        <v>25</v>
+      </c>
+      <c r="N54" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="O54" s="6">
+        <v>132.3</v>
+      </c>
+    </row>
+    <row r="55" ht="17.25" spans="1:15">
+      <c r="A55" s="2">
+        <v>53</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="4">
+        <v>20</v>
+      </c>
+      <c r="H55" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I55" s="4">
+        <v>92.5</v>
+      </c>
+      <c r="J55" s="4">
+        <v>23</v>
+      </c>
+      <c r="K55" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="L55" s="4">
+        <v>104.2</v>
+      </c>
+      <c r="M55" s="4">
+        <v>22</v>
+      </c>
+      <c r="N55" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="O55" s="4">
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="56" ht="17.25" spans="1:15">
+      <c r="A56" s="2">
+        <v>54</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="5"/>
+      <c r="G56" s="6">
+        <v>21</v>
+      </c>
+      <c r="H56" s="6">
+        <v>2</v>
+      </c>
+      <c r="I56" s="6">
+        <v>79</v>
+      </c>
+      <c r="J56" s="6">
+        <v>23</v>
+      </c>
+      <c r="K56" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="L56" s="6">
+        <v>95.5</v>
+      </c>
+      <c r="M56" s="6">
+        <v>25</v>
+      </c>
+      <c r="N56" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="O56" s="6">
+        <v>114.9</v>
+      </c>
+    </row>
+    <row r="57" ht="17.25" spans="1:15">
+      <c r="A57" s="2">
+        <v>55</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="4">
+        <v>22</v>
+      </c>
+      <c r="H57" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="I57" s="4">
+        <v>129.3</v>
+      </c>
+      <c r="J57" s="4">
+        <v>12</v>
+      </c>
+      <c r="K57" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="L57" s="4">
+        <v>52.6</v>
+      </c>
+      <c r="M57" s="4">
+        <v>16</v>
+      </c>
+      <c r="N57" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="O57" s="4">
+        <v>68.2</v>
+      </c>
+    </row>
+    <row r="58" ht="17.25" spans="1:15">
+      <c r="A58" s="2">
+        <v>56</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="6">
+        <v>23</v>
+      </c>
+      <c r="H58" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="I58" s="6">
+        <v>60.7</v>
+      </c>
+      <c r="J58" s="6">
+        <v>24</v>
+      </c>
+      <c r="K58" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="L58" s="6">
+        <v>105.2</v>
+      </c>
+      <c r="M58" s="6">
+        <v>12</v>
+      </c>
+      <c r="N58" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="O58" s="6">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="59" ht="17.25" spans="1:15">
+      <c r="A59" s="2">
+        <v>57</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="4">
+        <v>25</v>
+      </c>
+      <c r="H59" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="I59" s="4">
+        <v>123.6</v>
+      </c>
+      <c r="J59" s="4">
+        <v>20</v>
+      </c>
+      <c r="K59" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="L59" s="4">
+        <v>83.8</v>
+      </c>
+      <c r="M59" s="4">
+        <v>18</v>
+      </c>
+      <c r="N59" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="O59" s="4">
+        <v>64.4</v>
+      </c>
+    </row>
+    <row r="60" ht="17.25" spans="1:15">
+      <c r="A60" s="2">
+        <v>58</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="6">
+        <v>21</v>
+      </c>
+      <c r="H60" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="I60" s="6">
+        <v>76.1</v>
+      </c>
+      <c r="J60" s="6">
+        <v>21</v>
+      </c>
+      <c r="K60" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="L60" s="6">
+        <v>70.3</v>
+      </c>
+      <c r="M60" s="6">
+        <v>16</v>
+      </c>
+      <c r="N60" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="O60" s="6">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="61" ht="17.25" spans="1:15">
+      <c r="A61" s="2">
+        <v>59</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="4">
+        <v>21</v>
+      </c>
+      <c r="H61" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="I61" s="4">
+        <v>125.4</v>
+      </c>
+      <c r="J61" s="4">
+        <v>17</v>
+      </c>
+      <c r="K61" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="L61" s="4">
+        <v>86.6</v>
+      </c>
+      <c r="M61" s="4">
+        <v>15</v>
+      </c>
+      <c r="N61" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="O61" s="4">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="62" ht="17.25" spans="1:15">
+      <c r="A62" s="2">
+        <v>60</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="6">
+        <v>22</v>
+      </c>
+      <c r="H62" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="I62" s="6">
+        <v>114.8</v>
+      </c>
+      <c r="J62" s="6">
+        <v>21</v>
+      </c>
+      <c r="K62" s="6">
+        <v>2</v>
+      </c>
+      <c r="L62" s="6">
+        <v>79</v>
+      </c>
+      <c r="M62" s="6">
+        <v>16</v>
+      </c>
+      <c r="N62" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="O62" s="6">
+        <v>53.7</v>
+      </c>
+    </row>
+    <row r="63" ht="17.25" spans="1:15">
+      <c r="A63" s="2">
+        <v>61</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="4">
+        <v>24</v>
+      </c>
+      <c r="H63" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="I63" s="4">
+        <v>134.2</v>
+      </c>
+      <c r="J63" s="4">
+        <v>14</v>
+      </c>
+      <c r="K63" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="L63" s="4">
+        <v>51.7</v>
+      </c>
+      <c r="M63" s="4">
+        <v>18</v>
+      </c>
+      <c r="N63" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="O63" s="4">
+        <v>61.5</v>
+      </c>
+    </row>
+    <row r="64" ht="17.25" spans="1:15">
+      <c r="A64" s="2">
+        <v>62</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="6">
+        <v>23</v>
+      </c>
+      <c r="H64" s="6">
+        <v>3</v>
+      </c>
+      <c r="I64" s="6">
+        <v>110</v>
+      </c>
+      <c r="J64" s="6">
+        <v>18</v>
+      </c>
+      <c r="K64" s="6">
+        <v>2.3</v>
+      </c>
+      <c r="L64" s="6">
+        <v>84.7</v>
+      </c>
+      <c r="M64" s="6">
+        <v>15</v>
+      </c>
+      <c r="N64" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="O64" s="6">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="65" ht="17.25" spans="1:15">
+      <c r="A65" s="2">
+        <v>63</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="4">
+        <v>23</v>
+      </c>
+      <c r="H65" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="I65" s="4">
+        <v>98.4</v>
+      </c>
+      <c r="J65" s="4">
+        <v>18</v>
+      </c>
+      <c r="K65" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="L65" s="4">
+        <v>81.8</v>
+      </c>
+      <c r="M65" s="4">
+        <v>21</v>
+      </c>
+      <c r="N65" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="O65" s="4">
+        <v>116.7</v>
+      </c>
+    </row>
+    <row r="66" ht="17.25" spans="1:15">
+      <c r="A66" s="2">
+        <v>64</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="5"/>
+      <c r="G66" s="6">
+        <v>23</v>
+      </c>
+      <c r="H66" s="6">
+        <v>2.3</v>
+      </c>
+      <c r="I66" s="6">
+        <v>89.7</v>
+      </c>
+      <c r="J66" s="6">
+        <v>16</v>
+      </c>
+      <c r="K66" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="L66" s="6">
+        <v>62.4</v>
+      </c>
+      <c r="M66" s="6">
+        <v>25</v>
+      </c>
+      <c r="N66" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="O66" s="6">
+        <v>126.5</v>
+      </c>
+    </row>
+    <row r="67" ht="17.25" spans="1:15">
+      <c r="A67" s="2">
+        <v>65</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="4">
+        <v>24</v>
+      </c>
+      <c r="H67" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="I67" s="4">
+        <v>131.3</v>
+      </c>
+      <c r="J67" s="4">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="L67" s="4">
+        <v>37.1</v>
+      </c>
+      <c r="M67" s="4">
+        <v>15</v>
+      </c>
+      <c r="N67" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="O67" s="4">
+        <v>75.9</v>
+      </c>
+    </row>
+    <row r="68" ht="17.25" spans="1:15">
+      <c r="A68" s="2">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="5"/>
+      <c r="G68" s="6">
+        <v>26</v>
+      </c>
+      <c r="H68" s="6">
+        <v>3</v>
+      </c>
+      <c r="I68" s="6">
+        <v>113</v>
+      </c>
+      <c r="J68" s="6">
+        <v>10</v>
+      </c>
+      <c r="K68" s="6">
+        <v>1</v>
+      </c>
+      <c r="L68" s="6">
+        <v>39</v>
+      </c>
+      <c r="M68" s="6">
+        <v>25</v>
+      </c>
+      <c r="N68" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="O68" s="6">
+        <v>114.9</v>
+      </c>
+    </row>
+    <row r="69" ht="17.25" spans="1:15">
+      <c r="A69" s="2">
+        <v>67</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="5"/>
+      <c r="G69" s="4">
+        <v>27</v>
+      </c>
+      <c r="H69" s="4">
+        <v>3</v>
+      </c>
+      <c r="I69" s="4">
+        <v>114</v>
+      </c>
+      <c r="J69" s="4">
+        <v>10</v>
+      </c>
+      <c r="K69" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="L69" s="4">
+        <v>44.8</v>
+      </c>
+      <c r="M69" s="4">
+        <v>26</v>
+      </c>
+      <c r="N69" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="O69" s="4">
+        <v>118.8</v>
+      </c>
+    </row>
+    <row r="70" ht="17.25" spans="1:15">
+      <c r="A70" s="2">
+        <v>68</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="5"/>
+      <c r="G70" s="6">
+        <v>25</v>
+      </c>
+      <c r="H70" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="I70" s="6">
+        <v>123.6</v>
+      </c>
+      <c r="J70" s="6">
+        <v>15</v>
+      </c>
+      <c r="K70" s="6">
+        <v>2</v>
+      </c>
+      <c r="L70" s="6">
+        <v>73</v>
+      </c>
+      <c r="M70" s="6">
+        <v>20</v>
+      </c>
+      <c r="N70" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="O70" s="6">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="71" ht="17.25" spans="1:15">
+      <c r="A71" s="2">
+        <v>69</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="5"/>
+      <c r="G71" s="4">
+        <v>17</v>
+      </c>
+      <c r="H71" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="I71" s="4">
+        <v>69.2</v>
+      </c>
+      <c r="J71" s="4">
+        <v>24</v>
+      </c>
+      <c r="K71" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="L71" s="4">
+        <v>128.4</v>
+      </c>
+      <c r="M71" s="4">
+        <v>21</v>
+      </c>
+      <c r="N71" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="O71" s="4">
+        <v>105.1</v>
+      </c>
+    </row>
+    <row r="72" ht="17.25" spans="1:15">
+      <c r="A72" s="2">
+        <v>70</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="5"/>
+      <c r="G72" s="6">
+        <v>19</v>
+      </c>
+      <c r="H72" s="6">
+        <v>3.1</v>
+      </c>
+      <c r="I72" s="6">
+        <v>108.9</v>
+      </c>
+      <c r="J72" s="6">
+        <v>14</v>
+      </c>
+      <c r="K72" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="L72" s="6">
+        <v>54.6</v>
+      </c>
+      <c r="M72" s="6">
+        <v>24</v>
+      </c>
+      <c r="N72" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="O72" s="6">
+        <v>125.5</v>
+      </c>
+    </row>
+    <row r="73" ht="17.25" spans="1:15">
+      <c r="A73" s="2">
+        <v>71</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="4">
+        <v>21</v>
+      </c>
+      <c r="H73" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="I73" s="4">
+        <v>105.1</v>
+      </c>
+      <c r="J73" s="4">
+        <v>24</v>
+      </c>
+      <c r="K73" s="4">
+        <v>2</v>
+      </c>
+      <c r="L73" s="4">
+        <v>82</v>
+      </c>
+      <c r="M73" s="4">
+        <v>30</v>
+      </c>
+      <c r="N73" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="O73" s="4">
+        <v>151.8</v>
+      </c>
+    </row>
+    <row r="74" ht="17.25" spans="1:15">
+      <c r="A74" s="2">
+        <v>72</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="6">
+        <v>18</v>
+      </c>
+      <c r="H74" s="6">
+        <v>2.2</v>
+      </c>
+      <c r="I74" s="6">
+        <v>81.8</v>
+      </c>
+      <c r="J74" s="6">
+        <v>16</v>
+      </c>
+      <c r="K74" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="L74" s="6">
+        <v>62.4</v>
+      </c>
+      <c r="M74" s="6">
+        <v>16</v>
+      </c>
+      <c r="N74" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="O74" s="6">
+        <v>111.7</v>
+      </c>
+    </row>
+    <row r="75" ht="17.25" spans="1:15">
+      <c r="A75" s="2">
+        <v>73</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="4">
+        <v>19</v>
+      </c>
+      <c r="H75" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="I75" s="4">
+        <v>97.3</v>
+      </c>
+      <c r="J75" s="4">
+        <v>22</v>
+      </c>
+      <c r="K75" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="L75" s="4">
+        <v>91.6</v>
+      </c>
+      <c r="M75" s="4">
+        <v>25</v>
+      </c>
+      <c r="N75" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="O75" s="4">
+        <v>109.1</v>
+      </c>
+    </row>
+    <row r="76" ht="17.25" spans="1:15">
+      <c r="A76" s="2">
+        <v>74</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="5"/>
+      <c r="G76" s="6">
+        <v>22</v>
+      </c>
+      <c r="H76" s="6">
+        <v>3</v>
+      </c>
+      <c r="I76" s="6">
+        <v>109</v>
+      </c>
+      <c r="J76" s="6">
+        <v>19</v>
+      </c>
+      <c r="K76" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="L76" s="6">
+        <v>71.2</v>
+      </c>
+      <c r="M76" s="6">
+        <v>19</v>
+      </c>
+      <c r="N76" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="O76" s="6">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="77" ht="17.25" spans="1:15">
+      <c r="A77" s="2">
+        <v>75</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="4">
+        <v>22</v>
+      </c>
+      <c r="H77" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="I77" s="4">
+        <v>120.6</v>
+      </c>
+      <c r="J77" s="4">
+        <v>18</v>
+      </c>
+      <c r="K77" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="L77" s="4">
+        <v>58.6</v>
+      </c>
+      <c r="M77" s="4">
+        <v>18</v>
+      </c>
+      <c r="N77" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="O77" s="4">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="78" ht="17.25" spans="1:15">
+      <c r="A78" s="2">
+        <v>76</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="5"/>
+      <c r="G78" s="6">
+        <v>27</v>
+      </c>
+      <c r="H78" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="I78" s="6">
+        <v>128.5</v>
+      </c>
+      <c r="J78" s="6">
+        <v>15</v>
+      </c>
+      <c r="K78" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="L78" s="6">
+        <v>58.5</v>
+      </c>
+      <c r="M78" s="6">
+        <v>18</v>
+      </c>
+      <c r="N78" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="O78" s="6">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="79" ht="17.25" spans="1:15">
+      <c r="A79" s="2">
+        <v>77</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="4">
+        <v>21</v>
+      </c>
+      <c r="H79" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="I79" s="4">
+        <v>96.4</v>
+      </c>
+      <c r="J79" s="4">
+        <v>22</v>
+      </c>
+      <c r="K79" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="L79" s="4">
+        <v>97.4</v>
+      </c>
+      <c r="M79" s="4">
+        <v>20</v>
+      </c>
+      <c r="N79" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="O79" s="4">
+        <v>72.2</v>
+      </c>
+    </row>
+    <row r="80" ht="17.25" spans="1:15">
+      <c r="A80" s="2">
+        <v>78</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="6">
+        <v>25</v>
+      </c>
+      <c r="H80" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="I80" s="6">
+        <v>103.3</v>
+      </c>
+      <c r="J80" s="6">
+        <v>22</v>
+      </c>
+      <c r="K80" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="L80" s="6">
+        <v>65.5</v>
+      </c>
+      <c r="M80" s="6">
+        <v>25</v>
+      </c>
+      <c r="N80" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="O80" s="6">
+        <v>77.2</v>
+      </c>
+    </row>
+    <row r="81" ht="17.25" spans="1:15">
+      <c r="A81" s="2">
+        <v>79</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="5"/>
+      <c r="G81" s="4">
+        <v>24</v>
+      </c>
+      <c r="H81" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="I81" s="4">
+        <v>99.4</v>
+      </c>
+      <c r="J81" s="4">
+        <v>18</v>
+      </c>
+      <c r="K81" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="L81" s="4">
+        <v>87.6</v>
+      </c>
+      <c r="M81" s="4">
+        <v>16</v>
+      </c>
+      <c r="N81" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="O81" s="4">
+        <v>59.5</v>
+      </c>
+    </row>
+    <row r="82" ht="17.25" spans="1:15">
+      <c r="A82" s="2">
+        <v>80</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="6">
+        <v>19</v>
+      </c>
+      <c r="H82" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="I82" s="6">
+        <v>68.3</v>
+      </c>
+      <c r="J82" s="6">
+        <v>21</v>
+      </c>
+      <c r="K82" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="L82" s="6">
+        <v>119.6</v>
+      </c>
+      <c r="M82" s="6">
+        <v>15</v>
+      </c>
+      <c r="N82" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="O82" s="6">
+        <v>90.4</v>
+      </c>
+    </row>
+    <row r="83" ht="17.25" spans="1:15">
+      <c r="A83" s="2">
+        <v>81</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="4">
+        <v>26</v>
+      </c>
+      <c r="H83" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="I83" s="4">
+        <v>124.6</v>
+      </c>
+      <c r="J83" s="4">
+        <v>16</v>
+      </c>
+      <c r="K83" s="4">
+        <v>1</v>
+      </c>
+      <c r="L83" s="4">
+        <v>45</v>
+      </c>
+      <c r="M83" s="4">
+        <v>23</v>
+      </c>
+      <c r="N83" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="O83" s="4">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="84" ht="17.25" spans="1:15">
+      <c r="A84" s="2">
+        <v>82</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="5"/>
+      <c r="G84" s="6">
+        <v>23</v>
+      </c>
+      <c r="H84" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="I84" s="6">
+        <v>121.6</v>
+      </c>
+      <c r="J84" s="6">
+        <v>20</v>
+      </c>
+      <c r="K84" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="L84" s="6">
+        <v>75.1</v>
+      </c>
+      <c r="M84" s="6">
+        <v>21</v>
+      </c>
+      <c r="N84" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="O84" s="6">
+        <v>67.4</v>
+      </c>
+    </row>
+    <row r="85" ht="17.25" spans="1:15">
+      <c r="A85" s="2">
+        <v>83</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="4">
+        <v>20</v>
+      </c>
+      <c r="H85" s="4">
+        <v>3.3</v>
+      </c>
+      <c r="I85" s="4">
+        <v>115.7</v>
+      </c>
+      <c r="J85" s="4">
+        <v>16</v>
+      </c>
+      <c r="K85" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="L85" s="4">
+        <v>71.1</v>
+      </c>
+      <c r="M85" s="4">
+        <v>18</v>
+      </c>
+      <c r="N85" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="O85" s="4">
+        <v>81.8</v>
+      </c>
+    </row>
+    <row r="86" ht="17.25" spans="1:15">
+      <c r="A86" s="2">
+        <v>84</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="6">
+        <v>18</v>
+      </c>
+      <c r="H86" s="6">
+        <v>2.2</v>
+      </c>
+      <c r="I86" s="6">
+        <v>81.8</v>
+      </c>
+      <c r="J86" s="6">
+        <v>22</v>
+      </c>
+      <c r="K86" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="L86" s="6">
+        <v>94.5</v>
+      </c>
+      <c r="M86" s="6">
+        <v>25</v>
+      </c>
+      <c r="N86" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="O86" s="6">
+        <v>123.6</v>
+      </c>
+    </row>
+    <row r="87" ht="17.25" spans="1:15">
+      <c r="A87" s="2">
+        <v>85</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="4">
+        <v>18</v>
+      </c>
+      <c r="H87" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="I87" s="4">
+        <v>93.4</v>
+      </c>
+      <c r="J87" s="4">
+        <v>12</v>
+      </c>
+      <c r="K87" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="L87" s="4">
+        <v>49.7</v>
+      </c>
+      <c r="M87" s="4">
+        <v>21</v>
+      </c>
+      <c r="N87" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="O87" s="4">
+        <v>99.3</v>
+      </c>
+    </row>
+    <row r="88" ht="17.25" spans="1:15">
+      <c r="A88" s="2">
+        <v>86</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="6">
+        <v>22</v>
+      </c>
+      <c r="H88" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="I88" s="6">
+        <v>94.5</v>
+      </c>
+      <c r="J88" s="6">
+        <v>19</v>
+      </c>
+      <c r="K88" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="L88" s="6">
+        <v>123.4</v>
+      </c>
+      <c r="M88" s="6">
+        <v>21</v>
+      </c>
+      <c r="N88" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="O88" s="6">
+        <v>81.9</v>
+      </c>
+    </row>
+    <row r="89" ht="17.25" spans="1:15">
+      <c r="A89" s="2">
+        <v>87</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="4">
+        <v>17</v>
+      </c>
+      <c r="H89" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I89" s="4">
+        <v>89.5</v>
+      </c>
+      <c r="J89" s="4">
+        <v>18</v>
+      </c>
+      <c r="K89" s="4">
+        <v>3.2</v>
+      </c>
+      <c r="L89" s="4">
+        <v>110.8</v>
+      </c>
+      <c r="M89" s="4">
+        <v>16</v>
+      </c>
+      <c r="N89" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="O89" s="4">
+        <v>71.1</v>
+      </c>
+    </row>
+    <row r="90" ht="17.25" spans="1:15">
+      <c r="A90" s="2">
+        <v>88</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5"/>
+      <c r="G90" s="6">
+        <v>26</v>
+      </c>
+      <c r="H90" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="I90" s="6">
+        <v>130.4</v>
+      </c>
+      <c r="J90" s="6">
+        <v>20</v>
+      </c>
+      <c r="K90" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="L90" s="6">
+        <v>89.6</v>
+      </c>
+      <c r="M90" s="6">
+        <v>20</v>
+      </c>
+      <c r="N90" s="6">
+        <v>2.2</v>
+      </c>
+      <c r="O90" s="6">
+        <v>83.8</v>
+      </c>
+    </row>
+    <row r="91" ht="17.25" spans="1:15">
+      <c r="A91" s="2">
+        <v>89</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="4">
+        <v>18</v>
+      </c>
+      <c r="H91" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="I91" s="4">
+        <v>87.6</v>
+      </c>
+      <c r="J91" s="4">
+        <v>14</v>
+      </c>
+      <c r="K91" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="L91" s="4">
+        <v>69.1</v>
+      </c>
+      <c r="M91" s="4">
+        <v>15</v>
+      </c>
+      <c r="N91" s="4">
+        <v>4.6</v>
+      </c>
+      <c r="O91" s="4">
+        <v>148.4</v>
+      </c>
+    </row>
+    <row r="92" ht="17.25" spans="1:15">
+      <c r="A92" s="2">
+        <v>90</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="6">
+        <v>20</v>
+      </c>
+      <c r="H92" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="I92" s="6">
+        <v>89.6</v>
+      </c>
+      <c r="J92" s="6">
+        <v>15</v>
+      </c>
+      <c r="K92" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="L92" s="6">
+        <v>64.3</v>
+      </c>
+      <c r="M92" s="6">
+        <v>26</v>
+      </c>
+      <c r="N92" s="6">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
+      <c r="O92" s="6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="93" ht="17.25" spans="1:15">
+      <c r="A93" s="2">
+        <v>91</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="5"/>
+      <c r="G93" s="4">
+        <v>22</v>
+      </c>
+      <c r="H93" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="I93" s="4">
+        <v>97.4</v>
+      </c>
+      <c r="J93" s="4">
+        <v>22</v>
+      </c>
+      <c r="K93" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="L93" s="4">
+        <v>97.4</v>
+      </c>
+      <c r="M93" s="4">
+        <v>22</v>
+      </c>
+      <c r="N93" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="O93" s="4">
+        <v>97.4</v>
+      </c>
+    </row>
+    <row r="94" ht="17.25" spans="1:15">
+      <c r="A94" s="2">
+        <v>92</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="6">
+        <v>18</v>
+      </c>
+      <c r="H94" s="6">
+        <v>2.2</v>
+      </c>
+      <c r="I94" s="6">
+        <v>81.8</v>
+      </c>
+      <c r="J94" s="6">
+        <v>18</v>
+      </c>
+      <c r="K94" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="L94" s="6">
+        <v>125.3</v>
+      </c>
+      <c r="M94" s="6">
+        <v>22</v>
+      </c>
+      <c r="N94" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="O94" s="6">
+        <v>77.1</v>
+      </c>
+    </row>
+    <row r="95" ht="17.25" spans="1:15">
+      <c r="A95" s="2">
+        <v>93</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="4">
+        <v>24</v>
+      </c>
+      <c r="H95" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="I95" s="4">
+        <v>76.2</v>
+      </c>
+      <c r="J95" s="4">
+        <v>17</v>
+      </c>
+      <c r="K95" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="L95" s="4">
+        <v>69.2</v>
+      </c>
+      <c r="M95" s="4">
+        <v>20</v>
+      </c>
+      <c r="N95" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="O95" s="4">
+        <v>66.4</v>
+      </c>
+    </row>
+    <row r="96" ht="17.25" spans="1:15">
+      <c r="A96" s="2">
+        <v>94</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="6">
+        <v>22</v>
+      </c>
+      <c r="H96" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="I96" s="6">
+        <v>103.2</v>
+      </c>
+      <c r="J96" s="6">
+        <v>11</v>
+      </c>
+      <c r="K96" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="L96" s="6">
+        <v>48.7</v>
+      </c>
+      <c r="M96" s="6">
+        <v>22</v>
+      </c>
+      <c r="N96" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="O96" s="6">
+        <v>106.1</v>
+      </c>
+    </row>
+    <row r="97" ht="17.25" spans="1:15">
+      <c r="A97" s="2">
+        <v>95</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="4">
+        <v>16</v>
+      </c>
+      <c r="H97" s="4">
+        <v>2</v>
+      </c>
+      <c r="I97" s="4">
+        <v>74</v>
+      </c>
+      <c r="J97" s="4">
+        <v>14</v>
+      </c>
+      <c r="K97" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="L97" s="4">
+        <v>103.9</v>
+      </c>
+      <c r="M97" s="4">
+        <v>16</v>
+      </c>
+      <c r="N97" s="4">
+        <v>2</v>
+      </c>
+      <c r="O97" s="4">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" ht="17.25" spans="1:15">
+      <c r="A98" s="2">
+        <v>96</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="6">
+        <v>17</v>
+      </c>
+      <c r="H98" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I98" s="6">
+        <v>60.5</v>
+      </c>
+      <c r="J98" s="6">
+        <v>22</v>
+      </c>
+      <c r="K98" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="L98" s="6">
+        <v>126.4</v>
+      </c>
+      <c r="M98" s="6">
+        <v>23</v>
+      </c>
+      <c r="N98" s="6">
+        <v>4</v>
+      </c>
+      <c r="O98" s="6">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" ht="17.25" spans="1:15">
+      <c r="A99" s="2">
+        <v>97</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="4">
+        <v>18</v>
+      </c>
+      <c r="H99" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="I99" s="4">
+        <v>99.2</v>
+      </c>
+      <c r="J99" s="4">
+        <v>15</v>
+      </c>
+      <c r="K99" s="4">
+        <v>3</v>
+      </c>
+      <c r="L99" s="4">
+        <v>102</v>
+      </c>
+      <c r="M99" s="4">
+        <v>18</v>
+      </c>
+      <c r="N99" s="4">
+        <v>2</v>
+      </c>
+      <c r="O99" s="4">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" ht="17.25" spans="1:15">
+      <c r="A100" s="2">
+        <v>98</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="6">
+        <v>17</v>
+      </c>
+      <c r="H100" s="6">
+        <v>3</v>
+      </c>
+      <c r="I100" s="6">
+        <v>104</v>
+      </c>
+      <c r="J100" s="6">
+        <v>14</v>
+      </c>
+      <c r="K100" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="L100" s="6">
+        <v>60.4</v>
+      </c>
+      <c r="M100" s="6">
+        <v>23</v>
+      </c>
+      <c r="N100" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="O100" s="6">
+        <v>72.3</v>
+      </c>
+    </row>
+    <row r="101" ht="17.25" spans="1:15">
+      <c r="A101" s="2">
+        <v>99</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="4">
+        <v>20</v>
+      </c>
+      <c r="H101" s="4">
+        <v>2.4</v>
+      </c>
+      <c r="I101" s="4">
+        <v>89.6</v>
+      </c>
+      <c r="J101" s="4">
+        <v>23</v>
+      </c>
+      <c r="K101" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="L101" s="4">
+        <v>75.2</v>
+      </c>
+      <c r="M101" s="4">
+        <v>30</v>
+      </c>
+      <c r="N101" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="O101" s="4">
+        <v>137.3</v>
+      </c>
+    </row>
+    <row r="102" ht="17.25" spans="1:15">
+      <c r="A102" s="2">
+        <v>100</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="6">
+        <v>18</v>
+      </c>
+      <c r="H102" s="6">
+        <v>2.2</v>
+      </c>
+      <c r="I102" s="6">
+        <v>81.8</v>
+      </c>
+      <c r="J102" s="6">
+        <v>15</v>
+      </c>
+      <c r="K102" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="L102" s="6">
+        <v>58.5</v>
+      </c>
+      <c r="M102" s="6">
+        <v>18</v>
+      </c>
+      <c r="N102" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="O102" s="6">
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="103" ht="17.25" spans="1:15">
+      <c r="A103" s="2">
+        <v>101</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="4">
+        <v>22</v>
+      </c>
+      <c r="H103" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="I103" s="4">
+        <v>97.4</v>
+      </c>
+      <c r="J103" s="4">
+        <v>19</v>
+      </c>
+      <c r="K103" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="L103" s="4">
+        <v>82.8</v>
+      </c>
+      <c r="M103" s="4">
+        <v>24</v>
+      </c>
+      <c r="N103" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="O103" s="4">
+        <v>113.9</v>
+      </c>
+    </row>
+    <row r="104" ht="17.25" spans="1:15">
+      <c r="A104" s="2">
+        <v>102</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="6">
+        <v>22</v>
+      </c>
+      <c r="H104" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="I104" s="6">
+        <v>91.6</v>
+      </c>
+      <c r="J104" s="6">
+        <v>23</v>
+      </c>
+      <c r="K104" s="6">
+        <v>3</v>
+      </c>
+      <c r="L104" s="6">
+        <v>110</v>
+      </c>
+      <c r="M104" s="6">
+        <v>15</v>
+      </c>
+      <c r="N104" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="O104" s="6">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="105" ht="17.25" spans="1:15">
+      <c r="A105" s="2">
+        <v>103</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="4">
+        <v>28</v>
+      </c>
+      <c r="H105" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="I105" s="4">
+        <v>112.1</v>
+      </c>
+      <c r="J105" s="4">
+        <v>15</v>
+      </c>
+      <c r="K105" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="L105" s="4">
+        <v>67.2</v>
+      </c>
+      <c r="M105" s="4">
+        <v>22</v>
+      </c>
+      <c r="N105" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="O105" s="4">
+        <v>106.1</v>
+      </c>
+    </row>
+    <row r="106" ht="17.25" spans="1:15">
+      <c r="A106" s="2">
+        <v>104</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="6">
+        <v>24</v>
+      </c>
+      <c r="H106" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="I106" s="6">
+        <v>102.3</v>
+      </c>
+      <c r="J106" s="6">
+        <v>22</v>
+      </c>
+      <c r="K106" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="L106" s="6">
+        <v>120.6</v>
+      </c>
+      <c r="M106" s="6">
+        <v>18</v>
+      </c>
+      <c r="N106" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="O106" s="6">
+        <v>67.3</v>
+      </c>
+    </row>
+    <row r="107" ht="17.25" spans="1:15">
+      <c r="A107" s="2">
+        <v>105</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="4">
+        <v>29</v>
+      </c>
+      <c r="H107" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="I107" s="4">
+        <v>118.9</v>
+      </c>
+      <c r="J107" s="4">
+        <v>17</v>
+      </c>
+      <c r="K107" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="L107" s="4">
+        <v>66.3</v>
+      </c>
+      <c r="M107" s="4">
+        <v>14</v>
+      </c>
+      <c r="N107" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="O107" s="4">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="108" ht="17.25" spans="1:15">
+      <c r="A108" s="2">
+        <v>106</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="6">
+        <v>21</v>
+      </c>
+      <c r="H108" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="I108" s="6">
+        <v>93.5</v>
+      </c>
+      <c r="J108" s="6">
+        <v>14</v>
+      </c>
+      <c r="K108" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>11</v>
+      <c r="L108" s="6">
+        <v>43</v>
+      </c>
+      <c r="M108" s="6">
+        <v>19</v>
+      </c>
+      <c r="N108" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="O108" s="6">
+        <v>123.4</v>
+      </c>
+    </row>
+    <row r="109" ht="17.25" spans="1:15">
+      <c r="A109" s="2">
+        <v>107</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="4">
+        <v>20</v>
+      </c>
+      <c r="H109" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="I109" s="4">
+        <v>92.5</v>
+      </c>
+      <c r="J109" s="4">
+        <v>21</v>
+      </c>
+      <c r="K109" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="L109" s="4">
+        <v>96.4</v>
+      </c>
+      <c r="M109" s="4">
+        <v>19</v>
+      </c>
+      <c r="N109" s="4">
+        <v>2</v>
+      </c>
+      <c r="O109" s="4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="110" ht="17.25" spans="1:15">
+      <c r="A110" s="2">
+        <v>108</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="6">
+        <v>20</v>
+      </c>
+      <c r="H110" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="I110" s="6">
+        <v>75.1</v>
+      </c>
+      <c r="J110" s="6">
+        <v>20</v>
+      </c>
+      <c r="K110" s="6">
+        <v>2.2</v>
+      </c>
+      <c r="L110" s="6">
+        <v>83.8</v>
+      </c>
+      <c r="M110" s="6">
+        <v>23</v>
+      </c>
+      <c r="N110" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="O110" s="6">
+        <v>121.6</v>
+      </c>
+    </row>
+    <row r="111" ht="17.25" spans="1:15">
+      <c r="A111" s="2">
+        <v>109</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="4">
+        <v>20</v>
+      </c>
+      <c r="H111" s="4">
+        <v>2</v>
+      </c>
+      <c r="I111" s="4">
+        <v>78</v>
+      </c>
+      <c r="J111" s="4">
+        <v>18</v>
+      </c>
+      <c r="K111" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="L111" s="4">
+        <v>64.4</v>
+      </c>
+      <c r="M111" s="4">
+        <v>18</v>
+      </c>
+      <c r="N111" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="O111" s="4">
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="112" ht="17.25" spans="1:15">
+      <c r="A112" s="2">
+        <v>110</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="6">
+        <v>23</v>
+      </c>
+      <c r="H112" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="I112" s="6">
+        <v>130.3</v>
+      </c>
+      <c r="J112" s="6">
+        <v>22</v>
+      </c>
+      <c r="K112" s="6">
+        <v>2</v>
+      </c>
+      <c r="L112" s="6">
+        <v>80</v>
+      </c>
+      <c r="M112" s="6">
+        <v>15</v>
+      </c>
+      <c r="N112" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="O112" s="6">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="113" ht="17.25" spans="1:15">
+      <c r="A113" s="2">
+        <v>111</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C113" s="5"/>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="4">
+        <v>22</v>
+      </c>
+      <c r="H113" s="4">
+        <v>2.9</v>
+      </c>
+      <c r="I113" s="4">
+        <v>106.1</v>
+      </c>
+      <c r="J113" s="4">
+        <v>17</v>
+      </c>
+      <c r="K113" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="L113" s="4">
+        <v>69.2</v>
+      </c>
+      <c r="M113" s="4">
+        <v>14</v>
+      </c>
+      <c r="N113" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="O113" s="4">
+        <v>95.2</v>
+      </c>
+    </row>
+    <row r="114" ht="17.25" spans="1:15">
+      <c r="A114" s="2">
+        <v>112</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C114" s="5"/>
+      <c r="D114" s="5"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="6">
+        <v>25</v>
+      </c>
+      <c r="H114" s="6">
+        <v>2</v>
+      </c>
+      <c r="I114" s="6">
+        <v>83</v>
+      </c>
+      <c r="J114" s="6">
+        <v>15</v>
+      </c>
+      <c r="K114" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="L114" s="6">
+        <v>75.9</v>
+      </c>
+      <c r="M114" s="6">
+        <v>19</v>
+      </c>
+      <c r="N114" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="O114" s="6">
+        <v>111.8</v>
+      </c>
+    </row>
+    <row r="115" ht="17.25" spans="1:15">
+      <c r="A115" s="2">
+        <v>113</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C115" s="5"/>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="4">
+        <v>21</v>
+      </c>
+      <c r="H115" s="4">
+        <v>2.2</v>
+      </c>
+      <c r="I115" s="4">
+        <v>84.8</v>
+      </c>
+      <c r="J115" s="4">
+        <v>18</v>
+      </c>
+      <c r="K115" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="L115" s="4">
+        <v>116.6</v>
+      </c>
+      <c r="M115" s="4">
+        <v>23</v>
+      </c>
+      <c r="N115" s="4">
+        <v>1.9</v>
+      </c>
+      <c r="O115" s="4">
+        <v>78.1</v>
+      </c>
+    </row>
+    <row r="116" ht="17.25" spans="1:15">
+      <c r="A116" s="2">
+        <v>114</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C116" s="5"/>
+      <c r="D116" s="5"/>
+      <c r="E116" s="5"/>
+      <c r="F116" s="5"/>
+      <c r="G116" s="6">
+        <v>21</v>
+      </c>
+      <c r="H116" s="6">
+        <v>2</v>
+      </c>
+      <c r="I116" s="6">
+        <v>79</v>
+      </c>
+      <c r="J116" s="6">
+        <v>22</v>
+      </c>
+      <c r="K116" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="L116" s="6">
+        <v>71.3</v>
+      </c>
+      <c r="M116" s="6">
+        <v>23</v>
+      </c>
+      <c r="N116" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="O116" s="6">
+        <v>136.1</v>
+      </c>
+    </row>
+    <row r="117" ht="17.25" spans="1:15">
+      <c r="A117" s="2">
+        <v>115</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="4">
+        <v>18</v>
+      </c>
+      <c r="H117" s="4">
+        <v>3</v>
+      </c>
+      <c r="I117" s="4">
+        <v>105</v>
+      </c>
+      <c r="J117" s="4">
+        <v>17</v>
+      </c>
+      <c r="K117" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="L117" s="4">
+        <v>57.6</v>
+      </c>
+      <c r="M117" s="4">
+        <v>18</v>
+      </c>
+      <c r="N117" s="4">
+        <v>3.6</v>
+      </c>
+      <c r="O117" s="4">
+        <v>122.4</v>
+      </c>
+    </row>
+    <row r="118" ht="17.25" spans="1:15">
+      <c r="A118" s="2">
+        <v>116</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="6">
+        <v>23</v>
+      </c>
+      <c r="H118" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="I118" s="6">
+        <v>124.5</v>
+      </c>
+      <c r="J118" s="6">
+        <v>14</v>
+      </c>
+      <c r="K118" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="L118" s="6">
+        <v>57.5</v>
+      </c>
+      <c r="M118" s="6">
+        <v>15</v>
+      </c>
+      <c r="N118" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="O118" s="6">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="119" ht="17.25" spans="1:15">
+      <c r="A119" s="2">
+        <v>117</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C119" s="5"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="5"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="4">
+        <v>25</v>
+      </c>
+      <c r="H119" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="I119" s="4">
+        <v>126.5</v>
+      </c>
+      <c r="J119" s="4">
+        <v>15</v>
+      </c>
+      <c r="K119" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="L119" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="M119" s="4">
+        <v>19</v>
+      </c>
+      <c r="N119" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="O119" s="4">
+        <v>68.3</v>
+      </c>
+    </row>
+    <row r="120" ht="17.25" spans="1:15">
+      <c r="A120" s="2">
+        <v>118</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+      <c r="G120" s="6">
+        <v>17</v>
+      </c>
+      <c r="H120" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="I120" s="6">
+        <v>66.3</v>
+      </c>
+      <c r="J120" s="6">
+        <v>19</v>
+      </c>
+      <c r="K120" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="L120" s="6">
+        <v>71.2</v>
+      </c>
+      <c r="M120" s="6">
+        <v>22</v>
+      </c>
+      <c r="N120" s="6">
+        <v>3.8</v>
+      </c>
+      <c r="O120" s="6">
+        <v>132.2</v>
+      </c>
+    </row>
+    <row r="121" ht="17.25" spans="1:15">
+      <c r="A121" s="2">
+        <v>119</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="4">
+        <v>20</v>
+      </c>
+      <c r="H121" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="I121" s="4">
+        <v>109.9</v>
+      </c>
+      <c r="J121" s="4">
+        <v>18</v>
+      </c>
+      <c r="K121" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="L121" s="4">
+        <v>70.2</v>
+      </c>
+      <c r="M121" s="4">
+        <v>21</v>
+      </c>
+      <c r="N121" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="O121" s="4">
+        <v>110.9</v>
+      </c>
+    </row>
+    <row r="122" ht="17.25" spans="1:15">
+      <c r="A122" s="2">
+        <v>120</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
+      <c r="F122" s="5"/>
+      <c r="G122" s="6">
+        <v>19</v>
+      </c>
+      <c r="H122" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="I122" s="6">
+        <v>100.2</v>
+      </c>
+      <c r="J122" s="6">
+        <v>22</v>
+      </c>
+      <c r="K122" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="L122" s="6">
+        <v>129.3</v>
+      </c>
+      <c r="M122" s="6">
+        <v>20</v>
+      </c>
+      <c r="N122" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="O122" s="6">
+        <v>72.2</v>
       </c>
     </row>
   </sheetData>
